--- a/PriorsTable.xlsx
+++ b/PriorsTable.xlsx
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/PriorsTable.xlsx
+++ b/PriorsTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>distribution</t>
   </si>
@@ -167,18 +167,6 @@
     <t>Q_0</t>
   </si>
   <si>
-    <t>Q_1</t>
-  </si>
-  <si>
-    <t>Q_2</t>
-  </si>
-  <si>
-    <t>Q_3</t>
-  </si>
-  <si>
-    <t>Q_4</t>
-  </si>
-  <si>
     <t>Q_5</t>
   </si>
   <si>
@@ -242,18 +230,6 @@
     <t>Q_25</t>
   </si>
   <si>
-    <t>Q_26</t>
-  </si>
-  <si>
-    <t>Q_27</t>
-  </si>
-  <si>
-    <t>Q_28</t>
-  </si>
-  <si>
-    <t>Q_29</t>
-  </si>
-  <si>
     <t>H_diag</t>
   </si>
   <si>
@@ -264,6 +240,9 @@
   </si>
   <si>
     <t>randomWalkVariance</t>
+  </si>
+  <si>
+    <t>initialValues</t>
   </si>
 </sst>
 </file>
@@ -615,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +606,10 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -640,15 +620,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -659,13 +642,16 @@
       <c r="E2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -676,13 +662,16 @@
       <c r="E3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -693,13 +682,16 @@
       <c r="E4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -710,13 +702,16 @@
       <c r="E5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -727,13 +722,16 @@
       <c r="E6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -744,13 +742,16 @@
       <c r="E7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -761,13 +762,16 @@
       <c r="E8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -778,13 +782,16 @@
       <c r="E9">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -795,13 +802,16 @@
       <c r="E10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -812,13 +822,16 @@
       <c r="E11">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -829,13 +842,16 @@
       <c r="E12">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -846,13 +862,16 @@
       <c r="E13">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -863,13 +882,16 @@
       <c r="E14">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -880,13 +902,16 @@
       <c r="E15">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -897,13 +922,16 @@
       <c r="E16">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -914,13 +942,16 @@
       <c r="E17">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -931,13 +962,16 @@
       <c r="E18">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -948,13 +982,16 @@
       <c r="E19">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -965,13 +1002,16 @@
       <c r="E20">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -982,13 +1022,16 @@
       <c r="E21">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -999,13 +1042,16 @@
       <c r="E22">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1016,13 +1062,16 @@
       <c r="E23">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1033,13 +1082,16 @@
       <c r="E24">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1050,13 +1102,16 @@
       <c r="E25">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1067,13 +1122,16 @@
       <c r="E26">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1084,13 +1142,16 @@
       <c r="E27">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1101,13 +1162,16 @@
       <c r="E28">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1118,13 +1182,16 @@
       <c r="E29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1135,13 +1202,16 @@
       <c r="E30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1152,13 +1222,16 @@
       <c r="E31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1169,13 +1242,16 @@
       <c r="E32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1186,13 +1262,16 @@
       <c r="E33">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1203,13 +1282,16 @@
       <c r="E34">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1220,13 +1302,16 @@
       <c r="E35">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1237,13 +1322,16 @@
       <c r="E36">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1254,13 +1342,16 @@
       <c r="E37">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1271,13 +1362,16 @@
       <c r="E38">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1288,13 +1382,16 @@
       <c r="E39">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1305,13 +1402,16 @@
       <c r="E40">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1322,13 +1422,16 @@
       <c r="E41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1339,13 +1442,16 @@
       <c r="E42">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1356,13 +1462,16 @@
       <c r="E43">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1373,13 +1482,16 @@
       <c r="E44">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1387,13 +1499,16 @@
       <c r="E45">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1401,13 +1516,16 @@
       <c r="E46">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1415,13 +1533,16 @@
       <c r="E47">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1429,13 +1550,16 @@
       <c r="E48">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1443,13 +1567,16 @@
       <c r="E49">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1457,13 +1584,16 @@
       <c r="E50">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1471,13 +1601,16 @@
       <c r="E51">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1485,13 +1618,16 @@
       <c r="E52">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1499,13 +1635,16 @@
       <c r="E53">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1513,13 +1652,16 @@
       <c r="E54">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1527,13 +1669,16 @@
       <c r="E55">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1541,13 +1686,16 @@
       <c r="E56">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1555,13 +1703,16 @@
       <c r="E57">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1569,13 +1720,16 @@
       <c r="E58">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1583,13 +1737,16 @@
       <c r="E59">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1597,13 +1754,16 @@
       <c r="E60">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1611,13 +1771,16 @@
       <c r="E61">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1625,13 +1788,16 @@
       <c r="E62">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1639,13 +1805,16 @@
       <c r="E63">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1653,13 +1822,16 @@
       <c r="E64">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1667,13 +1839,16 @@
       <c r="E65">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1681,13 +1856,16 @@
       <c r="E66">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1695,117 +1873,8 @@
       <c r="E67">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1E-3</v>
+      <c r="F67">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
